--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KCox4\Documents\Bootcamp\Homework\coxExcelChallenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E013A0A-D836-4203-BCB6-10FCC29E4205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D0015A-4F72-4E88-9C45-4EF8EC9EC323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6608917-F42F-4865-B182-F3DE5AA90469}"/>
   </bookViews>
@@ -30,6 +30,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>This is a change</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,10 +389,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA74BD3-13E1-48E7-817D-0290D0BC9B54}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>